--- a/Doc/设备网络协议.xlsx
+++ b/Doc/设备网络协议.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\郑大2018年9月网课\Smart\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartHome\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5A0216-CF04-456E-AA14-22122367FA7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DD7035-C6DA-4096-852A-73031EE373D8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7488" activeTab="1" xr2:uid="{7178FC7C-DC83-49E0-8105-2BBA889B52DE}"/>
   </bookViews>
@@ -972,7 +972,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
